--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,13 @@
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>however</t>
   </si>
   <si>
     <t>broke</t>
@@ -73,109 +76,115 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
@@ -184,55 +193,49 @@
     <t>good</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>bought</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
   </si>
   <si>
     <t>one</t>
@@ -613,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,16 +698,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>0.8984375</v>
@@ -774,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3643410852713178</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.8695652173913043</v>
@@ -824,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3636363636363636</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8622291021671826</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1243243243243243</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.7931034482758621</v>
@@ -920,17 +923,41 @@
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>163</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.7359307359307359</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7173913043478261</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1020,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6983050847457627</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L12">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M12">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1046,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1072,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6619718309859155</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1098,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6573033707865169</v>
+        <v>0.6476725521669342</v>
       </c>
       <c r="L15">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="M15">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1124,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6428571428571429</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1150,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1176,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.578125</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1202,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5777777777777777</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1228,47 +1255,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="L20">
+        <v>41</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>31</v>
-      </c>
-      <c r="K20">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L20">
-        <v>98</v>
-      </c>
-      <c r="M20">
-        <v>98</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5449101796407185</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L21">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1280,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1306,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5213675213675214</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1332,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5138888888888888</v>
+        <v>0.53125</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1358,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5096153846153846</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1384,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1410,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.49</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1436,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4705882352941176</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1462,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4578313253012048</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1488,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4385964912280702</v>
+        <v>0.46</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1514,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4285714285714285</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1545,16 +1572,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4210526315789473</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1566,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4153846153846154</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1592,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4036144578313253</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L34">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1618,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3799019607843137</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L35">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="M35">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1644,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3657587548638132</v>
+        <v>0.3480392156862745</v>
       </c>
       <c r="L36">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M36">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1670,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>163</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.345679012345679</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1696,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3232876712328767</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L38">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1722,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>494</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3093525179856115</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1748,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3082706766917293</v>
+        <v>0.2972602739726027</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1774,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>92</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.291866028708134</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1800,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.2702702702702703</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1826,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2582781456953642</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1852,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2443487621097955</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L44">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1878,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>702</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2037037037037037</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1904,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.1986754966887417</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L46">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="M46">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1930,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>605</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.1981981981981982</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1956,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.1912225705329154</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="L48">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1982,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>258</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.180306905370844</v>
+        <v>0.2079470198675497</v>
       </c>
       <c r="L49">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M49">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2008,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>641</v>
+        <v>598</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.1646341463414634</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2034,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>137</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.1610738255033557</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2060,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>125</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.1351351351351351</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M52">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="N52">
         <v>0.98</v>
@@ -2086,21 +2113,21 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.1340909090909091</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L53">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2112,15 +2139,15 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>381</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.1299435028248588</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L54">
         <v>23</v>
@@ -2138,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1143911439114391</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2164,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.1140350877192982</v>
+        <v>0.125</v>
       </c>
       <c r="L56">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M56">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2190,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1111111111111111</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2216,47 +2243,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>240</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1100478468899522</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L58">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M58">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>372</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1030927835051546</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2268,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1021897810218978</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="L60">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M60">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2294,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.09663865546218488</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2320,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.06529850746268656</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L62">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M62">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2346,47 +2373,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.06025824964131994</v>
+        <v>0.05595408895265423</v>
       </c>
       <c r="L63">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M63">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N63">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.04243542435424354</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2398,33 +2425,33 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.04155844155844156</v>
+        <v>0.0372940156114484</v>
       </c>
       <c r="L65">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
